--- a/Integrationsplan_Updated.xlsx
+++ b/Integrationsplan_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trill\OneDrive\Skrivebord\SWT SOURCE\Microwave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C9CC498-EC84-42DD-8984-6A5B82D5A9E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CE2547-B2D8-4A02-8D5A-FD607484CA92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="10140" xr2:uid="{A94110E4-C87A-4C65-9E94-07A2885B6C0F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="23">
   <si>
     <t>Step #</t>
   </si>
@@ -75,6 +75,30 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>MJ, TM</t>
+  </si>
+  <si>
+    <t>TM, MJ</t>
+  </si>
+  <si>
+    <t>MH, MJ</t>
+  </si>
+  <si>
+    <t>TM, MH</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>MJ, MH</t>
   </si>
 </sst>
 </file>
@@ -605,7 +629,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L14"/>
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +704,9 @@
         <v>13</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="4"/>
+      <c r="M2" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -713,7 +739,9 @@
         <v>13</v>
       </c>
       <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -728,7 +756,9 @@
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
@@ -744,7 +774,9 @@
         <v>13</v>
       </c>
       <c r="L4" s="5"/>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
@@ -777,7 +809,9 @@
         <v>13</v>
       </c>
       <c r="L5" s="10"/>
-      <c r="M5" s="6"/>
+      <c r="M5" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
@@ -814,7 +848,9 @@
         <v>13</v>
       </c>
       <c r="L6" s="11"/>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
@@ -851,7 +887,9 @@
         <v>13</v>
       </c>
       <c r="L7" s="13"/>
-      <c r="M7" s="6"/>
+      <c r="M7" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
@@ -888,7 +926,9 @@
         <v>13</v>
       </c>
       <c r="L8" s="14"/>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
@@ -925,7 +965,9 @@
         <v>13</v>
       </c>
       <c r="L9" s="17"/>
-      <c r="M9" s="6"/>
+      <c r="M9" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
@@ -962,7 +1004,9 @@
         <v>13</v>
       </c>
       <c r="L10" s="14"/>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
@@ -1001,7 +1045,9 @@
       <c r="L11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="6"/>
+      <c r="M11" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -1040,7 +1086,9 @@
       <c r="L12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -1079,7 +1127,9 @@
       <c r="L13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="6"/>
+      <c r="M13" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
@@ -1118,7 +1168,9 @@
       <c r="L14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>

--- a/Integrationsplan_Updated.xlsx
+++ b/Integrationsplan_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trill\OneDrive\Skrivebord\SWT SOURCE\Microwave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CE2547-B2D8-4A02-8D5A-FD607484CA92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5F4986-5C53-4DFA-98AC-F6DE94FC4FB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="10140" xr2:uid="{A94110E4-C87A-4C65-9E94-07A2885B6C0F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="22">
   <si>
     <t>Step #</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>TM, MJ</t>
-  </si>
-  <si>
-    <t>MH, MJ</t>
   </si>
   <si>
     <t>TM, MH</t>
@@ -159,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -231,21 +228,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
       <bottom style="medium">
         <color rgb="FFFF0000"/>
       </bottom>
@@ -292,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -305,13 +287,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2451466-5AC6-46AA-81E0-FDD622F37670}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,385 +796,346 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="11"/>
+      <c r="B6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="19"/>
       <c r="M6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+    <row r="7" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="6" t="s">
+      <c r="B8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+    <row r="9" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="4" t="s">
+      <c r="B9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>4</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
-        <v>4</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>4</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>19</v>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
         <v>7</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>8</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H16" s="15"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="18"/>
+      <c r="B13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H15" s="13"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Integrationsplan_Updated.xlsx
+++ b/Integrationsplan_Updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trill\OneDrive\Skrivebord\SWT SOURCE\Microwave\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\4semester\SWT25_Assignment3_Microwave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5F4986-5C53-4DFA-98AC-F6DE94FC4FB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A7BB1-F50E-44FD-A0A6-6EEA28E9B0D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="10140" xr2:uid="{A94110E4-C87A-4C65-9E94-07A2885B6C0F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="24">
   <si>
     <t>Step #</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>MJ, MH</t>
+  </si>
+  <si>
+    <t>Er ikke lavet endnu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mellem step 5 og step 6 ved jeg ikke hvordan vi beskriver, da det er de samme klasser der er stubs og drivere, der gås bare tilbage i hierarket(andre functioner bliver kaldt). </t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -199,62 +205,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -270,11 +220,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -285,16 +246,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,15 +565,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2451466-5AC6-46AA-81E0-FDD622F37670}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +612,7 @@
       </c>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -691,7 +647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -726,7 +682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -761,282 +717,288 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="10"/>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="4" t="s">
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17">
-        <v>2</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="11"/>
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
-        <v>3</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="6" t="s">
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>3</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="12"/>
+      <c r="N8" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
-        <v>4</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="15" t="s">
+      <c r="N9" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>12</v>
@@ -1069,73 +1031,89 @@
         <v>14</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>7</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H15" s="13"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="16"/>
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Integrationsplan_Updated.xlsx
+++ b/Integrationsplan_Updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\4semester\SWT25_Assignment3_Microwave\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trill\OneDrive\Skrivebord\SWT SOURCE\Microwave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A7BB1-F50E-44FD-A0A6-6EEA28E9B0D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA70961-B420-4689-AB10-F58CB5BF2EEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="10140" xr2:uid="{A94110E4-C87A-4C65-9E94-07A2885B6C0F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="24">
   <si>
     <t>Step #</t>
   </si>
@@ -568,12 +568,15 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="63.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +615,7 @@
       </c>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -647,7 +650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -682,7 +685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -717,7 +720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -752,7 +755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -791,7 +794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -830,7 +833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -864,7 +867,9 @@
       <c r="K8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="9"/>
+      <c r="L8" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="M8" s="9" t="s">
         <v>19</v>
       </c>
@@ -872,7 +877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -906,7 +911,9 @@
       <c r="K9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="M9" s="4" t="s">
         <v>20</v>
       </c>
@@ -914,9 +921,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>12</v>
@@ -955,9 +962,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>12</v>
@@ -996,9 +1003,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>12</v>
@@ -1037,7 +1044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1052,7 +1059,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1067,7 +1074,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1082,7 +1089,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1097,7 +1104,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1112,7 +1119,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E21" s="10"/>
     </row>
   </sheetData>

--- a/Integrationsplan_Updated.xlsx
+++ b/Integrationsplan_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trill\OneDrive\Skrivebord\SWT SOURCE\Microwave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA70961-B420-4689-AB10-F58CB5BF2EEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF2E50D-3F53-4347-B31F-D2FDA6C4201B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="10140" xr2:uid="{A94110E4-C87A-4C65-9E94-07A2885B6C0F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="25">
   <si>
     <t>Step #</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mellem step 5 og step 6 ved jeg ikke hvordan vi beskriver, da det er de samme klasser der er stubs og drivere, der gås bare tilbage i hierarket(andre functioner bliver kaldt). </t>
+  </si>
+  <si>
+    <t>I gang med dette (TM)</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,6 +963,9 @@
       </c>
       <c r="M10" s="6" t="s">
         <v>15</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">

--- a/Integrationsplan_Updated.xlsx
+++ b/Integrationsplan_Updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trill\OneDrive\Skrivebord\SWT SOURCE\Microwave\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\4semester\SWT25_Assignment3_Microwave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF2E50D-3F53-4347-B31F-D2FDA6C4201B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA94726F-2DB3-4F76-93DB-4026F13FF73D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="10140" xr2:uid="{A94110E4-C87A-4C65-9E94-07A2885B6C0F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="15">
   <si>
     <t>Step #</t>
   </si>
@@ -75,36 +75,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
-    <t>MH</t>
-  </si>
-  <si>
-    <t>MJ, TM</t>
-  </si>
-  <si>
-    <t>TM, MJ</t>
-  </si>
-  <si>
-    <t>TM, MH</t>
-  </si>
-  <si>
-    <t>MJ</t>
-  </si>
-  <si>
-    <t>MJ, MH</t>
-  </si>
-  <si>
-    <t>Er ikke lavet endnu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mellem step 5 og step 6 ved jeg ikke hvordan vi beskriver, da det er de samme klasser der er stubs og drivere, der gås bare tilbage i hierarket(andre functioner bliver kaldt). </t>
-  </si>
-  <si>
-    <t>I gang med dette (TM)</t>
   </si>
 </sst>
 </file>
@@ -571,15 +541,15 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="14" max="14" width="63.42578125" customWidth="1"/>
+    <col min="14" max="14" width="63.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +588,7 @@
       </c>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -649,11 +619,9 @@
         <v>13</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -684,11 +652,9 @@
         <v>13</v>
       </c>
       <c r="L3" s="7"/>
-      <c r="M3" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -719,11 +685,9 @@
         <v>13</v>
       </c>
       <c r="L4" s="5"/>
-      <c r="M4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -754,11 +718,9 @@
         <v>13</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -793,11 +755,9 @@
         <v>13</v>
       </c>
       <c r="L6" s="12"/>
-      <c r="M6" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -832,11 +792,9 @@
         <v>13</v>
       </c>
       <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -873,14 +831,10 @@
       <c r="L8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M8" s="9"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -917,14 +871,10 @@
       <c r="L9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M9" s="4"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -961,14 +911,10 @@
       <c r="L10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M10" s="6"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1005,11 +951,9 @@
       <c r="L11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1046,11 +990,9 @@
       <c r="L12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1065,7 +1007,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1080,7 +1022,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1095,7 +1037,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1110,7 +1052,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1125,7 +1067,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E21" s="10"/>
     </row>
   </sheetData>

--- a/Integrationsplan_Updated.xlsx
+++ b/Integrationsplan_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trill\OneDrive\Skrivebord\SWT SOURCE\Microwave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF2E50D-3F53-4347-B31F-D2FDA6C4201B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D42E8E9-3C7F-43D7-9AD3-653681577167}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="10140" xr2:uid="{A94110E4-C87A-4C65-9E94-07A2885B6C0F}"/>
   </bookViews>
@@ -570,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2451466-5AC6-46AA-81E0-FDD622F37670}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
